--- a/converted/IPT_converted.xlsx
+++ b/converted/IPT_converted.xlsx
@@ -636,7 +636,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1087,7 +1087,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1292,7 +1292,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1333,7 +1333,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1374,7 +1374,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>

--- a/converted/IPT_converted.xlsx
+++ b/converted/IPT_converted.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Boolean</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
